--- a/auto/new_data/9_2_Ferrous_LME-Steel-HRC-FOB-China-Argus.xlsx
+++ b/auto/new_data/9_2_Ferrous_LME-Steel-HRC-FOB-China-Argus.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>776</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>446</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>418</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>292</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>257</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>485</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>199</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>173</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Ferrous_LME-Steel-HRC-FOB-China-Argus.xlsx
+++ b/auto/new_data/9_2_Ferrous_LME-Steel-HRC-FOB-China-Argus.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>978</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>413</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>260</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -596,12 +596,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>495</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>206</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>185</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Ferrous_LME-Steel-HRC-FOB-China-Argus.xlsx
+++ b/auto/new_data/9_2_Ferrous_LME-Steel-HRC-FOB-China-Argus.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nov 24</t>
+          <t>Dec 24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>978</t>
+          <t>618</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -486,22 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>251</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>303</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>533</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>250</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>May 25</t>
+          <t>Jun 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>233</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jun 25</t>
+          <t>Jul 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>213</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jul 25</t>
+          <t>Aug 25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aug 25</t>
+          <t>Sep 25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sep 25</t>
+          <t>Oct 25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Oct 25</t>
+          <t>Nov 25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nov 25</t>
+          <t>Dec 25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>89</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -786,22 +786,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dec 25</t>
+          <t>Jan 26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jan 26</t>
+          <t>Feb 26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
